--- a/考えたサービス一覧.xlsx
+++ b/考えたサービス一覧.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$5:$L$18</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$17</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="69">
   <si>
     <t>収入管理アプリ</t>
     <rPh sb="0" eb="2">
@@ -446,20 +446,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>ド</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>類似度は0~10
-大きいほどありきたり</t>
-    <rPh sb="0" eb="2">
-      <t>ルイジ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>ド</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -931,6 +917,122 @@
     </rPh>
     <rPh sb="49" eb="50">
       <t>タオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>SNS</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ネタ帳SNS</t>
+    <rPh sb="2" eb="3">
+      <t>チョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>様々なジャンルのネタを書くことができる．
+ジャンル別に投稿（共有）も可能でランキングなども見ることができる</t>
+    <rPh sb="0" eb="2">
+      <t>サマザマ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ベツ</t>
+    </rPh>
+    <rPh sb="27" eb="29">
+      <t>トウコウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>キョウユウ</t>
+    </rPh>
+    <rPh sb="34" eb="36">
+      <t>カノウ</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>改変将棋</t>
+    <rPh sb="0" eb="2">
+      <t>カイヘン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ショウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>好きな駒と盤面を作成することができる</t>
+    <rPh sb="0" eb="1">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>コマ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>バン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>メン</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>サクセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高</t>
+    <rPh sb="0" eb="1">
+      <t>コウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裏切り将棋</t>
+    <rPh sb="0" eb="2">
+      <t>ウラギ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ショウギ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボードゲームなら何でもいいが，既存のゲームに裏切り要素を追加する．
+＋αの何かを追加することで意外性を…</t>
+    <rPh sb="8" eb="9">
+      <t>ナン</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>キソン</t>
+    </rPh>
+    <rPh sb="22" eb="24">
+      <t>ウラギ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ヨウソ</t>
+    </rPh>
+    <rPh sb="28" eb="30">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="37" eb="38">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="40" eb="42">
+      <t>ツイカ</t>
+    </rPh>
+    <rPh sb="47" eb="50">
+      <t>イガイセイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -993,7 +1095,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1005,6 +1107,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,10 +1391,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A4:L18"/>
+  <dimension ref="A4:L22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
+      <selection activeCell="A4" sqref="A4"/>
+      <selection pane="bottomLeft" activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1305,148 +1412,175 @@
     <col min="11" max="12" width="7.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="J4" s="1" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A4" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="K4" s="2" t="s">
         <v>45</v>
       </c>
+      <c r="L4" s="2" t="s">
+        <v>43</v>
+      </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.4">
-      <c r="A5" s="2" t="s">
-        <v>48</v>
+    <row r="5" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+      <c r="A5" s="2">
+        <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="2"/>
+      <c r="E5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2">
         <v>4</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E5" s="3" t="s">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+      <c r="A6" s="4">
         <v>14</v>
       </c>
-      <c r="F5" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="K5" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="L5" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
-      <c r="A6" s="2">
-        <v>1</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>0</v>
+      <c r="B6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>61</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="J6" s="2">
-        <v>5</v>
+        <v>62</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="H6" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="J6" s="4">
+        <v>3</v>
       </c>
       <c r="K6" s="2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="L6" s="2"/>
     </row>
     <row r="7" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="3" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="G7" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>39</v>
-      </c>
       <c r="I7" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="2">
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="K7" s="2">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="3" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J8" s="2">
         <v>1</v>
       </c>
       <c r="K8" s="2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="L8" s="2"/>
     </row>
@@ -1462,7 +1596,7 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F9" s="3" t="s">
         <v>31</v>
@@ -1484,22 +1618,22 @@
       </c>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="3" t="s">
         <v>52</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="G10" s="2" t="s">
         <v>38</v>
@@ -1511,143 +1645,139 @@
         <v>40</v>
       </c>
       <c r="J10" s="2">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="K10" s="2">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="L10" s="2"/>
     </row>
-    <row r="11" spans="1:12" ht="131.25" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
+        <v>64</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>27</v>
-      </c>
+        <v>65</v>
+      </c>
+      <c r="F11" s="3"/>
       <c r="G11" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="J11" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K11" s="2">
         <v>3</v>
       </c>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>10</v>
+        <v>67</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>33</v>
-      </c>
+        <v>68</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>38</v>
+        <v>66</v>
       </c>
       <c r="J12" s="2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="K12" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="3" t="s">
         <v>55</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="G13" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="I13" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J13" s="2">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K13" s="2">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="L13" s="2"/>
     </row>
-    <row r="14" spans="1:12" ht="112.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="3" t="s">
         <v>56</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="G14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H14" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="I14" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="J14" s="2">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="K14" s="2">
         <v>4</v>
@@ -1656,23 +1786,23 @@
     </row>
     <row r="15" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="3" t="s">
-        <v>57</v>
+        <v>46</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H15" s="2" t="s">
         <v>40</v>
@@ -1684,41 +1814,41 @@
         <v>5</v>
       </c>
       <c r="K15" s="2">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="3" t="s">
-        <v>58</v>
+        <v>49</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="G16" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>39</v>
       </c>
       <c r="I16" s="2" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="2">
         <v>1</v>
       </c>
       <c r="K16" s="2">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L16" s="2"/>
     </row>
@@ -1734,7 +1864,7 @@
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="3" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>37</v>
@@ -1756,44 +1886,140 @@
       </c>
       <c r="L17" s="2"/>
     </row>
-    <row r="18" spans="1:12" ht="75" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C18" s="3" t="s">
-        <v>41</v>
+      <c r="C18" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="3" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>29</v>
       </c>
       <c r="G18" s="2" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="J18" s="2">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="K18" s="2">
         <v>6</v>
       </c>
       <c r="L18" s="2"/>
     </row>
+    <row r="19" spans="1:12" ht="93.75" x14ac:dyDescent="0.4">
+      <c r="A19" s="2">
+        <v>5</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="2"/>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="G19" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="I19" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J19" s="2">
+        <v>9</v>
+      </c>
+      <c r="K19" s="2">
+        <v>8</v>
+      </c>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" ht="37.5" x14ac:dyDescent="0.4">
+      <c r="A20" s="2">
+        <v>8</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D20" s="2"/>
+      <c r="E20" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="H20" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="I20" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J20" s="2">
+        <v>10</v>
+      </c>
+      <c r="K20" s="2">
+        <v>10</v>
+      </c>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A21" s="2"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="2"/>
+      <c r="D21" s="2"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="2"/>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+      <c r="L21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.4">
+      <c r="A22" s="2"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="2"/>
+      <c r="D22" s="2"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="2"/>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A5:L18">
-    <sortState ref="A6:L18">
-      <sortCondition ref="A5:A18"/>
+  <autoFilter ref="A4:L17">
+    <sortState ref="A5:L20">
+      <sortCondition ref="K4:K17"/>
     </sortState>
   </autoFilter>
   <phoneticPr fontId="1"/>
